--- a/forms/app/specimen_details.xlsx
+++ b/forms/app/specimen_details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="182">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -285,64 +285,326 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">follow_up_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When did the patient visit the health facility?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selected(${availability},'yes')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">floor(decimal-date-time(.) - decimal-date-time(today())) &amp;lt;= 0 and floor(difference-in-months(., today()) div 12) &amp;lt;= 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date Should Not Exceed Today’s Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_details_group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specimen Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was the type of specimen collected?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is the cholera specimen number?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select_one result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What was the outcome of the test?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">more_specimen_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Any additional information about this specimen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">group_review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field-list summary</t>
+  </si>
+  <si>
     <t xml:space="preserve">note</t>
   </si>
   <si>
-    <t xml:space="preserve">Please exit the workflow. The patient is not taken to the Health facility yet!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${availability},'no')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">follow_up_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When did the patient visit the health facility?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">selected(${availability},'yes')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specimen_details_group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specimen Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one specimen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specimen_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What was the type of specimen collected?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">text</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specimen_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the cholera specimen number?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select_one result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">result</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What was the outcome of the test?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">more_specimen_details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any additional information about this specimen</t>
+    <t xml:space="preserve">summary_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Specimen Summary&lt;i class="fa fa-user"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complete_action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be sure you submit to complete this action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h5 center</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all_patient_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patient Details&lt;i class="fa fa-plus-square"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 blue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_of_patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${patient_name}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">age_of_patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${patient_age_in_years} &lt;span&gt;years old&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the_findings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Findings &lt;i class="fa fa-search-plus" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 green</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Sample Taken on ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">follow_up_date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">${availability} =  ‘yes’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_collected</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Specimen Collected ${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">specimen_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_collectedr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh Stool &amp; Rectal Swab</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">specimen_type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} =  ‘both’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">specimen_ids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specimen ID : ${specimen_id}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">outcome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Outcome&lt;/b&gt; &lt;p style=”color:red;”&gt;Positive&lt;/p&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} =  ‘positive’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;b&gt;Outcome&lt;/b&gt; &lt;p style=”color:green;”&gt;Negative&lt;/p&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">${</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">result</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">} =  ‘negative’</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">facility_recommendation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recommendation &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 red</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facility_recommendations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closely  monitor ${patient_name} and give them proper treatment and best home remedies &lt;i class="fa fa-warning" aria-hidden="true"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facility_recommendationsrg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facility_recommendationsr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${patient_name} is not suffering from cholera, test for other illnesses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">facility_recommendati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conduct contact tracing for the suspected patient.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${availability} =  ‘no’</t>
   </si>
   <si>
     <t xml:space="preserve">list_name</t>
@@ -378,15 +640,9 @@
     <t xml:space="preserve">specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">rectal_swab</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rectal swab</t>
   </si>
   <si>
-    <t xml:space="preserve">fresh_stool</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fresh stool</t>
   </si>
   <si>
@@ -429,7 +685,7 @@
     <t xml:space="preserve">default_language</t>
   </si>
   <si>
-    <t xml:space="preserve">Collected Specimen Detail</t>
+    <t xml:space="preserve">Laboratory Report</t>
   </si>
   <si>
     <t xml:space="preserve">specimen_form</t>
@@ -452,7 +708,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -511,7 +767,37 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -577,7 +863,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -610,44 +896,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6FA8DC"/>
-        <bgColor rgb="FF93C47D"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFE2F3"/>
-        <bgColor rgb="FFD0E0E3"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF4CCCC"/>
-        <bgColor rgb="FFD9D2E9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF3F3F3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFE598"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBDD6EE"/>
-        <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -664,6 +920,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFD9D2E9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD0E0E3"/>
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
@@ -672,6 +934,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9D2E9"/>
         <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
   </fills>
@@ -718,7 +986,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -807,135 +1075,143 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -955,7 +1231,7 @@
       <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFF3F3F3"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
@@ -966,7 +1242,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFD9D9D9"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF6FA8DC"/>
+      <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFCFE2F3"/>
@@ -985,15 +1261,15 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFEFEFEF"/>
       <rgbColor rgb="FFD9EAD3"/>
-      <rgbColor rgb="FFFFE598"/>
-      <rgbColor rgb="FFBDD6EE"/>
       <rgbColor rgb="FFFCE5CD"/>
       <rgbColor rgb="FFD0E0E3"/>
+      <rgbColor rgb="FFF3F3F3"/>
+      <rgbColor rgb="FFDEE2E6"/>
       <rgbColor rgb="FFF4CCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFDEE2E6"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666666"/>
@@ -1016,13 +1292,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AJ80"/>
+  <dimension ref="A1:AJ96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B39" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B60" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.55"/>
@@ -2897,6 +3173,9 @@
       <c r="G43" s="0" t="s">
         <v>33</v>
       </c>
+      <c r="M43" s="0" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -2913,36 +3192,32 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C45" s="19"/>
+      <c r="F45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="19"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E46" s="0" t="s">
         <v>86</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2958,28 +3233,28 @@
       <c r="A49" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="21" t="s">
-        <v>95</v>
-      </c>
       <c r="F49" s="20" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="C50" s="22" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>98</v>
       </c>
       <c r="E50" s="0" t="s">
         <v>86</v>
@@ -2988,13 +3263,13 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="C51" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>101</v>
       </c>
       <c r="E51" s="0" t="s">
         <v>86</v>
@@ -3002,24 +3277,24 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="C52" s="0" t="s">
         <v>103</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>105</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,652 +3302,1001 @@
         <v>48</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="23"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23"/>
-      <c r="Z59" s="23"/>
-      <c r="AA59" s="23"/>
-      <c r="AB59" s="23"/>
-      <c r="AC59" s="23"/>
-      <c r="AD59" s="23"/>
-      <c r="AE59" s="23"/>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="23"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="23"/>
-      <c r="Z60" s="23"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="23"/>
-      <c r="AC60" s="23"/>
-      <c r="AD60" s="23"/>
-      <c r="AE60" s="23"/>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="23"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="23"/>
-      <c r="Z61" s="23"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="23"/>
-      <c r="AC61" s="23"/>
-      <c r="AD61" s="23"/>
-      <c r="AE61" s="23"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="23"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="23"/>
-      <c r="Z62" s="23"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="23"/>
-      <c r="AC62" s="23"/>
-      <c r="AD62" s="23"/>
-      <c r="AE62" s="23"/>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="23"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23"/>
-      <c r="Z63" s="23"/>
-      <c r="AA63" s="23"/>
-      <c r="AB63" s="23"/>
-      <c r="AC63" s="23"/>
-      <c r="AD63" s="23"/>
-      <c r="AE63" s="23"/>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="23"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="23"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="23"/>
-      <c r="AC64" s="23"/>
-      <c r="AD64" s="23"/>
-      <c r="AE64" s="23"/>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="23"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
-      <c r="H66" s="23"/>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="23"/>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="23"/>
-      <c r="AE66" s="23"/>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="24"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="29"/>
-      <c r="I67" s="29"/>
-      <c r="J67" s="29"/>
-      <c r="K67" s="30"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="P67" s="32"/>
-      <c r="Q67" s="32"/>
-      <c r="R67" s="32"/>
-      <c r="S67" s="32"/>
-      <c r="T67" s="32"/>
-      <c r="U67" s="32"/>
-      <c r="V67" s="32"/>
-      <c r="W67" s="32"/>
-      <c r="X67" s="32"/>
-      <c r="Y67" s="32"/>
-      <c r="Z67" s="32"/>
-      <c r="AA67" s="33"/>
-      <c r="AB67" s="33"/>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="30"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
-      <c r="P68" s="35"/>
-      <c r="Q68" s="35"/>
-      <c r="R68" s="35"/>
-      <c r="S68" s="35"/>
-      <c r="T68" s="35"/>
-      <c r="U68" s="35"/>
-      <c r="V68" s="35"/>
-      <c r="W68" s="35"/>
-      <c r="X68" s="35"/>
-      <c r="Y68" s="35"/>
-      <c r="Z68" s="35"/>
-      <c r="AA68" s="33"/>
-      <c r="AB68" s="33"/>
-    </row>
-    <row r="69" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="36"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="36"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="25"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="30"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
-      <c r="P69" s="35"/>
-      <c r="Q69" s="35"/>
-      <c r="R69" s="35"/>
-      <c r="S69" s="35"/>
-      <c r="T69" s="35"/>
-      <c r="U69" s="35"/>
-      <c r="V69" s="35"/>
-      <c r="W69" s="35"/>
-      <c r="X69" s="35"/>
-      <c r="Y69" s="35"/>
-      <c r="Z69" s="35"/>
-      <c r="AA69" s="33"/>
-      <c r="AB69" s="33"/>
-    </row>
-    <row r="70" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="36"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="36"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="30"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
-      <c r="P70" s="35"/>
-      <c r="Q70" s="35"/>
-      <c r="R70" s="35"/>
-      <c r="S70" s="35"/>
-      <c r="T70" s="35"/>
-      <c r="U70" s="35"/>
-      <c r="V70" s="35"/>
-      <c r="W70" s="35"/>
-      <c r="X70" s="35"/>
-      <c r="Y70" s="35"/>
-      <c r="Z70" s="35"/>
-      <c r="AA70" s="33"/>
-      <c r="AB70" s="33"/>
-    </row>
-    <row r="71" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="30"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
-      <c r="P71" s="35"/>
-      <c r="Q71" s="35"/>
-      <c r="R71" s="35"/>
-      <c r="S71" s="35"/>
-      <c r="T71" s="35"/>
-      <c r="U71" s="35"/>
-      <c r="V71" s="35"/>
-      <c r="W71" s="35"/>
-      <c r="X71" s="35"/>
-      <c r="Y71" s="35"/>
-      <c r="Z71" s="35"/>
-      <c r="AA71" s="33"/>
-      <c r="AB71" s="33"/>
-    </row>
-    <row r="72" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="30"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
-      <c r="V72" s="35"/>
-      <c r="W72" s="35"/>
-      <c r="X72" s="35"/>
-      <c r="Y72" s="35"/>
-      <c r="Z72" s="35"/>
-      <c r="AA72" s="33"/>
-      <c r="AB72" s="33"/>
-    </row>
-    <row r="73" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="36"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="33"/>
-      <c r="AB73" s="33"/>
-    </row>
-    <row r="74" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="36"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
-      <c r="P74" s="35"/>
-      <c r="Q74" s="35"/>
-      <c r="R74" s="35"/>
-      <c r="S74" s="35"/>
-      <c r="T74" s="35"/>
-      <c r="U74" s="35"/>
-      <c r="V74" s="35"/>
-      <c r="W74" s="35"/>
-      <c r="X74" s="35"/>
-      <c r="Y74" s="35"/>
-      <c r="Z74" s="35"/>
-      <c r="AA74" s="33"/>
-      <c r="AB74" s="33"/>
-    </row>
-    <row r="75" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="36"/>
-      <c r="B75" s="25"/>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="M57" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C60" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="F67" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="C68" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="C70" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="26"/>
       <c r="C75" s="26"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="30"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
-      <c r="V75" s="35"/>
-      <c r="W75" s="35"/>
-      <c r="X75" s="35"/>
-      <c r="Y75" s="35"/>
-      <c r="Z75" s="35"/>
-      <c r="AA75" s="33"/>
-      <c r="AB75" s="33"/>
-    </row>
-    <row r="76" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="36"/>
-      <c r="B76" s="25"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="26"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="26"/>
+      <c r="M75" s="26"/>
+      <c r="N75" s="26"/>
+      <c r="O75" s="26"/>
+      <c r="P75" s="26"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="26"/>
+      <c r="W75" s="26"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="26"/>
+      <c r="AD75" s="26"/>
+      <c r="AE75" s="26"/>
+    </row>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
       <c r="C76" s="26"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="30"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="35"/>
-      <c r="N76" s="35"/>
-      <c r="O76" s="35"/>
-      <c r="P76" s="35"/>
-      <c r="Q76" s="35"/>
-      <c r="R76" s="35"/>
-      <c r="S76" s="35"/>
-      <c r="T76" s="35"/>
-      <c r="U76" s="35"/>
-      <c r="V76" s="35"/>
-      <c r="W76" s="35"/>
-      <c r="X76" s="35"/>
-      <c r="Y76" s="35"/>
-      <c r="Z76" s="35"/>
-      <c r="AA76" s="33"/>
-      <c r="AB76" s="33"/>
-    </row>
-    <row r="77" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="36"/>
-      <c r="B77" s="25"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="26"/>
+      <c r="G76" s="26"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="26"/>
+      <c r="N76" s="26"/>
+      <c r="O76" s="26"/>
+      <c r="P76" s="26"/>
+      <c r="Q76" s="26"/>
+      <c r="R76" s="26"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="26"/>
+      <c r="U76" s="26"/>
+      <c r="V76" s="26"/>
+      <c r="W76" s="26"/>
+      <c r="X76" s="26"/>
+      <c r="Y76" s="26"/>
+      <c r="Z76" s="26"/>
+      <c r="AA76" s="26"/>
+      <c r="AB76" s="26"/>
+      <c r="AC76" s="26"/>
+      <c r="AD76" s="26"/>
+      <c r="AE76" s="26"/>
+    </row>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="26"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="30"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="35"/>
-      <c r="N77" s="35"/>
-      <c r="O77" s="35"/>
-      <c r="P77" s="35"/>
-      <c r="Q77" s="35"/>
-      <c r="R77" s="35"/>
-      <c r="S77" s="35"/>
-      <c r="T77" s="35"/>
-      <c r="U77" s="35"/>
-      <c r="V77" s="35"/>
-      <c r="W77" s="35"/>
-      <c r="X77" s="35"/>
-      <c r="Y77" s="35"/>
-      <c r="Z77" s="35"/>
-      <c r="AA77" s="33"/>
-      <c r="AB77" s="33"/>
-    </row>
-    <row r="78" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="36"/>
-      <c r="B78" s="25"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="26"/>
+      <c r="G77" s="26"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+      <c r="V77" s="26"/>
+      <c r="W77" s="26"/>
+      <c r="X77" s="26"/>
+      <c r="Y77" s="26"/>
+      <c r="Z77" s="26"/>
+      <c r="AA77" s="26"/>
+      <c r="AB77" s="26"/>
+      <c r="AC77" s="26"/>
+      <c r="AD77" s="26"/>
+      <c r="AE77" s="26"/>
+    </row>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="26"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="26"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="25"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="35"/>
-      <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
-      <c r="K78" s="30"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="35"/>
-      <c r="N78" s="35"/>
-      <c r="O78" s="35"/>
-      <c r="P78" s="35"/>
-      <c r="Q78" s="35"/>
-      <c r="R78" s="35"/>
-      <c r="S78" s="35"/>
-      <c r="T78" s="35"/>
-      <c r="U78" s="35"/>
-      <c r="V78" s="35"/>
-      <c r="W78" s="35"/>
-      <c r="X78" s="35"/>
-      <c r="Y78" s="35"/>
-      <c r="Z78" s="35"/>
-      <c r="AA78" s="33"/>
-      <c r="AB78" s="33"/>
-    </row>
-    <row r="79" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="36"/>
-      <c r="B79" s="25"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="26"/>
+      <c r="G78" s="26"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="26"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="26"/>
+      <c r="R78" s="26"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="26"/>
+      <c r="U78" s="26"/>
+      <c r="V78" s="26"/>
+      <c r="W78" s="26"/>
+      <c r="X78" s="26"/>
+      <c r="Y78" s="26"/>
+      <c r="Z78" s="26"/>
+      <c r="AA78" s="26"/>
+      <c r="AB78" s="26"/>
+      <c r="AC78" s="26"/>
+      <c r="AD78" s="26"/>
+      <c r="AE78" s="26"/>
+    </row>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="26"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="26"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="35"/>
-      <c r="I79" s="35"/>
-      <c r="J79" s="35"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="35"/>
-      <c r="N79" s="35"/>
-      <c r="O79" s="35"/>
-      <c r="P79" s="35"/>
-      <c r="Q79" s="35"/>
-      <c r="R79" s="35"/>
-      <c r="S79" s="35"/>
-      <c r="T79" s="35"/>
-      <c r="U79" s="35"/>
-      <c r="V79" s="35"/>
-      <c r="W79" s="35"/>
-      <c r="X79" s="35"/>
-      <c r="Y79" s="35"/>
-      <c r="Z79" s="35"/>
-      <c r="AA79" s="33"/>
-      <c r="AB79" s="33"/>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="25"/>
-      <c r="H80" s="32"/>
-      <c r="I80" s="32"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="32"/>
-      <c r="M80" s="32"/>
-      <c r="N80" s="32"/>
-      <c r="O80" s="32"/>
-      <c r="P80" s="32"/>
-      <c r="Q80" s="32"/>
-      <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
-      <c r="T80" s="32"/>
-      <c r="U80" s="32"/>
-      <c r="V80" s="32"/>
-      <c r="W80" s="32"/>
-      <c r="X80" s="32"/>
-      <c r="Y80" s="32"/>
-      <c r="Z80" s="32"/>
-      <c r="AA80" s="33"/>
-      <c r="AB80" s="33"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="26"/>
+      <c r="G79" s="26"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="26"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="26"/>
+      <c r="U79" s="26"/>
+      <c r="V79" s="26"/>
+      <c r="W79" s="26"/>
+      <c r="X79" s="26"/>
+      <c r="Y79" s="26"/>
+      <c r="Z79" s="26"/>
+      <c r="AA79" s="26"/>
+      <c r="AB79" s="26"/>
+      <c r="AC79" s="26"/>
+      <c r="AD79" s="26"/>
+      <c r="AE79" s="26"/>
+    </row>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="26"/>
+      <c r="B80" s="26"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="26"/>
+      <c r="G80" s="26"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="26"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="26"/>
+      <c r="N80" s="26"/>
+      <c r="O80" s="26"/>
+      <c r="P80" s="26"/>
+      <c r="Q80" s="26"/>
+      <c r="R80" s="26"/>
+      <c r="S80" s="26"/>
+      <c r="T80" s="26"/>
+      <c r="U80" s="26"/>
+      <c r="V80" s="26"/>
+      <c r="W80" s="26"/>
+      <c r="X80" s="26"/>
+      <c r="Y80" s="26"/>
+      <c r="Z80" s="26"/>
+      <c r="AA80" s="26"/>
+      <c r="AB80" s="26"/>
+      <c r="AC80" s="26"/>
+      <c r="AD80" s="26"/>
+      <c r="AE80" s="26"/>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="27"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="27"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="27"/>
+      <c r="M81" s="27"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="27"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="27"/>
+      <c r="R81" s="27"/>
+      <c r="S81" s="27"/>
+      <c r="T81" s="27"/>
+      <c r="U81" s="27"/>
+      <c r="V81" s="27"/>
+      <c r="W81" s="27"/>
+      <c r="X81" s="27"/>
+      <c r="Y81" s="27"/>
+      <c r="Z81" s="27"/>
+      <c r="AA81" s="27"/>
+      <c r="AB81" s="27"/>
+      <c r="AC81" s="27"/>
+      <c r="AD81" s="27"/>
+      <c r="AE81" s="27"/>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="26"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="26"/>
+      <c r="G82" s="26"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="26"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="26"/>
+      <c r="R82" s="26"/>
+      <c r="S82" s="26"/>
+      <c r="T82" s="26"/>
+      <c r="U82" s="26"/>
+      <c r="V82" s="26"/>
+      <c r="W82" s="26"/>
+      <c r="X82" s="26"/>
+      <c r="Y82" s="26"/>
+      <c r="Z82" s="26"/>
+      <c r="AA82" s="26"/>
+      <c r="AB82" s="26"/>
+      <c r="AC82" s="26"/>
+      <c r="AD82" s="26"/>
+      <c r="AE82" s="26"/>
+    </row>
+    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="31"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="28"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="31"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="31"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="31"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="33"/>
+      <c r="V83" s="33"/>
+      <c r="W83" s="33"/>
+      <c r="X83" s="33"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
+    </row>
+    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="30"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
+    </row>
+    <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="30"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30"/>
+      <c r="V85" s="30"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="27"/>
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27"/>
+      <c r="AE85" s="27"/>
+    </row>
+    <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="30"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="30"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="30"/>
+      <c r="P86" s="30"/>
+      <c r="Q86" s="30"/>
+      <c r="R86" s="30"/>
+      <c r="S86" s="30"/>
+      <c r="T86" s="30"/>
+      <c r="U86" s="30"/>
+      <c r="V86" s="30"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="27"/>
+      <c r="AB86" s="27"/>
+      <c r="AC86" s="27"/>
+      <c r="AD86" s="27"/>
+      <c r="AE86" s="27"/>
+    </row>
+    <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="30"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="30"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="30"/>
+      <c r="P87" s="30"/>
+      <c r="Q87" s="30"/>
+      <c r="R87" s="30"/>
+      <c r="S87" s="30"/>
+      <c r="T87" s="30"/>
+      <c r="U87" s="30"/>
+      <c r="V87" s="30"/>
+      <c r="W87" s="30"/>
+      <c r="X87" s="30"/>
+      <c r="Y87" s="30"/>
+      <c r="Z87" s="30"/>
+      <c r="AA87" s="27"/>
+      <c r="AB87" s="27"/>
+      <c r="AC87" s="27"/>
+      <c r="AD87" s="27"/>
+      <c r="AE87" s="27"/>
+    </row>
+    <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="30"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="30"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="30"/>
+      <c r="P88" s="30"/>
+      <c r="Q88" s="30"/>
+      <c r="R88" s="30"/>
+      <c r="S88" s="30"/>
+      <c r="T88" s="30"/>
+      <c r="U88" s="30"/>
+      <c r="V88" s="30"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="27"/>
+      <c r="AB88" s="27"/>
+      <c r="AC88" s="27"/>
+      <c r="AD88" s="27"/>
+      <c r="AE88" s="27"/>
+    </row>
+    <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="30"/>
+      <c r="B89" s="29"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="29"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="30"/>
+      <c r="I89" s="30"/>
+      <c r="J89" s="30"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="30"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="30"/>
+      <c r="P89" s="30"/>
+      <c r="Q89" s="30"/>
+      <c r="R89" s="30"/>
+      <c r="S89" s="30"/>
+      <c r="T89" s="30"/>
+      <c r="U89" s="30"/>
+      <c r="V89" s="30"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="27"/>
+      <c r="AB89" s="27"/>
+      <c r="AC89" s="27"/>
+      <c r="AD89" s="27"/>
+      <c r="AE89" s="27"/>
+    </row>
+    <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="30"/>
+      <c r="B90" s="29"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="30"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="30"/>
+      <c r="P90" s="30"/>
+      <c r="Q90" s="30"/>
+      <c r="R90" s="30"/>
+      <c r="S90" s="30"/>
+      <c r="T90" s="30"/>
+      <c r="U90" s="30"/>
+      <c r="V90" s="30"/>
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30"/>
+      <c r="AA90" s="27"/>
+      <c r="AB90" s="27"/>
+      <c r="AC90" s="27"/>
+      <c r="AD90" s="27"/>
+      <c r="AE90" s="27"/>
+    </row>
+    <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="30"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="30"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="27"/>
+      <c r="AB91" s="27"/>
+      <c r="AC91" s="27"/>
+      <c r="AD91" s="27"/>
+      <c r="AE91" s="27"/>
+    </row>
+    <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="30"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="36"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="35"/>
+      <c r="N92" s="35"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
+      <c r="Q92" s="35"/>
+      <c r="R92" s="35"/>
+      <c r="S92" s="35"/>
+      <c r="T92" s="35"/>
+      <c r="U92" s="35"/>
+      <c r="V92" s="35"/>
+      <c r="W92" s="35"/>
+      <c r="X92" s="35"/>
+      <c r="Y92" s="35"/>
+      <c r="Z92" s="35"/>
+      <c r="AA92" s="37"/>
+      <c r="AB92" s="37"/>
+    </row>
+    <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="30"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="35"/>
+      <c r="J93" s="35"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="35"/>
+      <c r="X93" s="35"/>
+      <c r="Y93" s="35"/>
+      <c r="Z93" s="35"/>
+      <c r="AA93" s="37"/>
+      <c r="AB93" s="37"/>
+    </row>
+    <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="30"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="35"/>
+      <c r="J94" s="35"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="35"/>
+      <c r="M94" s="35"/>
+      <c r="N94" s="35"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="35"/>
+      <c r="X94" s="35"/>
+      <c r="Y94" s="35"/>
+      <c r="Z94" s="35"/>
+      <c r="AA94" s="37"/>
+      <c r="AB94" s="37"/>
+    </row>
+    <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="30"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="35"/>
+      <c r="J95" s="35"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="35"/>
+      <c r="M95" s="35"/>
+      <c r="N95" s="35"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
+      <c r="Q95" s="35"/>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="35"/>
+      <c r="X95" s="35"/>
+      <c r="Y95" s="35"/>
+      <c r="Z95" s="35"/>
+      <c r="AA95" s="37"/>
+      <c r="AB95" s="37"/>
+    </row>
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="38"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="35"/>
+      <c r="K96" s="36"/>
+      <c r="L96" s="39"/>
+      <c r="M96" s="39"/>
+      <c r="N96" s="39"/>
+      <c r="O96" s="39"/>
+      <c r="P96" s="39"/>
+      <c r="Q96" s="39"/>
+      <c r="R96" s="39"/>
+      <c r="S96" s="39"/>
+      <c r="T96" s="39"/>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="39"/>
+      <c r="X96" s="39"/>
+      <c r="Y96" s="39"/>
+      <c r="Z96" s="39"/>
+      <c r="AA96" s="37"/>
+      <c r="AB96" s="37"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E59:E64 E66" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="E75:E80 E82" type="list">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3702,196 +4326,196 @@
   </sheetPr>
   <dimension ref="A1:V1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.65234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="28.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="38" width="45.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="28.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="40" width="45.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="43" t="s">
+      <c r="D1" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
+      <c r="G1" s="46" t="s">
+        <v>154</v>
+      </c>
+      <c r="H1" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="I1" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B2" s="47" t="s">
+      <c r="A2" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
+      <c r="C2" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
+      <c r="A3" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49"/>
-      <c r="P4" s="49"/>
-      <c r="Q4" s="49"/>
-      <c r="R4" s="49"/>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>119</v>
+      <c r="A5" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>121</v>
+      <c r="A6" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>123</v>
+      <c r="A7" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>125</v>
+      <c r="A9" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>127</v>
+      <c r="A10" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3967,94 +4591,94 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="E1" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F1" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="39"/>
-      <c r="S1" s="39"/>
-      <c r="T1" s="39"/>
-      <c r="U1" s="39"/>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="A1" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="52" t="n">
+      <c r="A2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="54" t="n">
         <f aca="true">NOW()</f>
-        <v>45268.6080717299</v>
-      </c>
-      <c r="D2" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="47"/>
-      <c r="G2" s="54" t="s">
-        <v>139</v>
-      </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
+        <v>45316.8564730556</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="49"/>
+      <c r="G2" s="56" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
+      <c r="W2" s="49"/>
+      <c r="X2" s="49"/>
+      <c r="Y2" s="49"/>
+      <c r="Z2" s="49"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/forms/app/specimen_details.xlsx
+++ b/forms/app/specimen_details.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -405,6 +405,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Sample Taken on ${</t>
     </r>
@@ -414,6 +415,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">follow_up_date</t>
     </r>
@@ -423,6 +425,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
@@ -440,6 +443,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Specimen Collected ${</t>
     </r>
@@ -449,6 +453,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">specimen_type</t>
     </r>
@@ -458,6 +463,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">}</t>
     </r>
@@ -484,6 +490,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">specimen_type</t>
     </r>
@@ -525,6 +532,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">result</t>
     </r>
@@ -560,6 +568,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">result</t>
     </r>
@@ -688,7 +697,7 @@
     <t xml:space="preserve">Laboratory Report</t>
   </si>
   <si>
-    <t xml:space="preserve">specimen_form</t>
+    <t xml:space="preserve">specimen_details</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -708,7 +717,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -769,6 +778,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -782,18 +792,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -809,13 +815,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -986,7 +985,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1087,35 +1086,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1123,15 +1118,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1139,10 +1134,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1151,67 +1142,63 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1294,11 +1281,11 @@
   </sheetPr>
   <dimension ref="A1:AJ96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B60" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B37" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.55"/>
@@ -3595,7 +3582,6 @@
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
-      <c r="F75" s="27"/>
       <c r="G75" s="26"/>
       <c r="H75" s="26"/>
       <c r="I75" s="26"/>
@@ -3787,39 +3773,6 @@
       <c r="AD80" s="26"/>
       <c r="AE80" s="26"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="27"/>
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
-      <c r="K81" s="27"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="27"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="27"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="27"/>
-      <c r="R81" s="27"/>
-      <c r="S81" s="27"/>
-      <c r="T81" s="27"/>
-      <c r="U81" s="27"/>
-      <c r="V81" s="27"/>
-      <c r="W81" s="27"/>
-      <c r="X81" s="27"/>
-      <c r="Y81" s="27"/>
-      <c r="Z81" s="27"/>
-      <c r="AA81" s="27"/>
-      <c r="AB81" s="27"/>
-      <c r="AC81" s="27"/>
-      <c r="AD81" s="27"/>
-      <c r="AE81" s="27"/>
-    </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="26"/>
       <c r="B82" s="26"/>
@@ -3854,445 +3807,399 @@
       <c r="AE82" s="26"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="28"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="30"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
-      <c r="K83" s="28"/>
-      <c r="L83" s="31"/>
-      <c r="M83" s="32"/>
-      <c r="N83" s="31"/>
-      <c r="O83" s="31"/>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="33"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="33"/>
-      <c r="U83" s="33"/>
-      <c r="V83" s="33"/>
-      <c r="W83" s="33"/>
-      <c r="X83" s="33"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="27"/>
-      <c r="AD83" s="27"/>
-      <c r="AE83" s="27"/>
+      <c r="A83" s="27"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="30"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="32"/>
+      <c r="Q83" s="32"/>
+      <c r="R83" s="32"/>
+      <c r="S83" s="32"/>
+      <c r="T83" s="32"/>
+      <c r="U83" s="32"/>
+      <c r="V83" s="32"/>
+      <c r="W83" s="32"/>
+      <c r="X83" s="32"/>
+      <c r="Y83" s="32"/>
+      <c r="Z83" s="32"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
-      <c r="C84" s="30"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="30"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="30"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="30"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="30"/>
-      <c r="S84" s="30"/>
-      <c r="T84" s="30"/>
-      <c r="U84" s="30"/>
-      <c r="V84" s="30"/>
-      <c r="W84" s="30"/>
-      <c r="X84" s="30"/>
-      <c r="Y84" s="30"/>
-      <c r="Z84" s="30"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
+      <c r="A84" s="29"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29"/>
     </row>
     <row r="85" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
-      <c r="C85" s="30"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="29"/>
-      <c r="H85" s="30"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="30"/>
-      <c r="K85" s="28"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="30"/>
-      <c r="S85" s="30"/>
-      <c r="T85" s="30"/>
-      <c r="U85" s="30"/>
-      <c r="V85" s="30"/>
-      <c r="W85" s="30"/>
-      <c r="X85" s="30"/>
-      <c r="Y85" s="30"/>
-      <c r="Z85" s="30"/>
-      <c r="AA85" s="27"/>
-      <c r="AB85" s="27"/>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="27"/>
-      <c r="AE85" s="27"/>
+      <c r="A85" s="29"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="33"/>
+      <c r="G85" s="28"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="29"/>
+      <c r="N85" s="29"/>
+      <c r="O85" s="29"/>
+      <c r="P85" s="29"/>
+      <c r="Q85" s="29"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
+      <c r="X85" s="29"/>
+      <c r="Y85" s="29"/>
+      <c r="Z85" s="29"/>
     </row>
     <row r="86" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
-      <c r="C86" s="30"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="30"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="30"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="30"/>
-      <c r="K86" s="28"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="30"/>
-      <c r="S86" s="30"/>
-      <c r="T86" s="30"/>
-      <c r="U86" s="30"/>
-      <c r="V86" s="30"/>
-      <c r="W86" s="30"/>
-      <c r="X86" s="30"/>
-      <c r="Y86" s="30"/>
-      <c r="Z86" s="30"/>
-      <c r="AA86" s="27"/>
-      <c r="AB86" s="27"/>
-      <c r="AC86" s="27"/>
-      <c r="AD86" s="27"/>
-      <c r="AE86" s="27"/>
+      <c r="A86" s="29"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="29"/>
+      <c r="N86" s="29"/>
+      <c r="O86" s="29"/>
+      <c r="P86" s="29"/>
+      <c r="Q86" s="29"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
+      <c r="X86" s="29"/>
+      <c r="Y86" s="29"/>
+      <c r="Z86" s="29"/>
     </row>
     <row r="87" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="30"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="30"/>
-      <c r="F87" s="34"/>
-      <c r="G87" s="29"/>
-      <c r="H87" s="30"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="30"/>
-      <c r="K87" s="28"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="30"/>
-      <c r="T87" s="30"/>
-      <c r="U87" s="30"/>
-      <c r="V87" s="30"/>
-      <c r="W87" s="30"/>
-      <c r="X87" s="30"/>
-      <c r="Y87" s="30"/>
-      <c r="Z87" s="30"/>
-      <c r="AA87" s="27"/>
-      <c r="AB87" s="27"/>
-      <c r="AC87" s="27"/>
-      <c r="AD87" s="27"/>
-      <c r="AE87" s="27"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="33"/>
+      <c r="G87" s="28"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="29"/>
+      <c r="N87" s="29"/>
+      <c r="O87" s="29"/>
+      <c r="P87" s="29"/>
+      <c r="Q87" s="29"/>
+      <c r="R87" s="29"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
+      <c r="X87" s="29"/>
+      <c r="Y87" s="29"/>
+      <c r="Z87" s="29"/>
     </row>
     <row r="88" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="30"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="29"/>
-      <c r="H88" s="30"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="30"/>
-      <c r="K88" s="28"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="30"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
-      <c r="T88" s="30"/>
-      <c r="U88" s="30"/>
-      <c r="V88" s="30"/>
-      <c r="W88" s="30"/>
-      <c r="X88" s="30"/>
-      <c r="Y88" s="30"/>
-      <c r="Z88" s="30"/>
-      <c r="AA88" s="27"/>
-      <c r="AB88" s="27"/>
-      <c r="AC88" s="27"/>
-      <c r="AD88" s="27"/>
-      <c r="AE88" s="27"/>
+      <c r="A88" s="29"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="33"/>
+      <c r="G88" s="28"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="29"/>
+      <c r="N88" s="29"/>
+      <c r="O88" s="29"/>
+      <c r="P88" s="29"/>
+      <c r="Q88" s="29"/>
+      <c r="R88" s="29"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
+      <c r="X88" s="29"/>
+      <c r="Y88" s="29"/>
+      <c r="Z88" s="29"/>
     </row>
     <row r="89" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="30"/>
-      <c r="B89" s="29"/>
-      <c r="C89" s="30"/>
-      <c r="D89" s="29"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="29"/>
-      <c r="H89" s="30"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="30"/>
-      <c r="K89" s="28"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="30"/>
-      <c r="S89" s="30"/>
-      <c r="T89" s="30"/>
-      <c r="U89" s="30"/>
-      <c r="V89" s="30"/>
-      <c r="W89" s="30"/>
-      <c r="X89" s="30"/>
-      <c r="Y89" s="30"/>
-      <c r="Z89" s="30"/>
-      <c r="AA89" s="27"/>
-      <c r="AB89" s="27"/>
-      <c r="AC89" s="27"/>
-      <c r="AD89" s="27"/>
-      <c r="AE89" s="27"/>
+      <c r="A89" s="29"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="29"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="28"/>
+      <c r="F89" s="30"/>
+      <c r="G89" s="28"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="29"/>
+      <c r="N89" s="29"/>
+      <c r="O89" s="29"/>
+      <c r="P89" s="29"/>
+      <c r="Q89" s="29"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
+      <c r="X89" s="29"/>
+      <c r="Y89" s="29"/>
+      <c r="Z89" s="29"/>
     </row>
     <row r="90" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="30"/>
-      <c r="B90" s="29"/>
-      <c r="C90" s="30"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="30"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="30"/>
-      <c r="K90" s="28"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="30"/>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="30"/>
-      <c r="R90" s="30"/>
-      <c r="S90" s="30"/>
-      <c r="T90" s="30"/>
-      <c r="U90" s="30"/>
-      <c r="V90" s="30"/>
-      <c r="W90" s="30"/>
-      <c r="X90" s="30"/>
-      <c r="Y90" s="30"/>
-      <c r="Z90" s="30"/>
-      <c r="AA90" s="27"/>
-      <c r="AB90" s="27"/>
-      <c r="AC90" s="27"/>
-      <c r="AD90" s="27"/>
-      <c r="AE90" s="27"/>
+      <c r="A90" s="29"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="28"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="28"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
     </row>
     <row r="91" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="30"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="30"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="29"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="29"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="28"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="30"/>
-      <c r="AA91" s="27"/>
-      <c r="AB91" s="27"/>
-      <c r="AC91" s="27"/>
-      <c r="AD91" s="27"/>
-      <c r="AE91" s="27"/>
+      <c r="A91" s="29"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="28"/>
+      <c r="E91" s="28"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="28"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="29"/>
+      <c r="N91" s="29"/>
+      <c r="O91" s="29"/>
+      <c r="P91" s="29"/>
+      <c r="Q91" s="29"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
+      <c r="X91" s="29"/>
+      <c r="Y91" s="29"/>
+      <c r="Z91" s="29"/>
     </row>
     <row r="92" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="30"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="29"/>
-      <c r="H92" s="30"/>
-      <c r="I92" s="35"/>
-      <c r="J92" s="35"/>
-      <c r="K92" s="36"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="35"/>
-      <c r="N92" s="35"/>
-      <c r="O92" s="35"/>
-      <c r="P92" s="35"/>
-      <c r="Q92" s="35"/>
-      <c r="R92" s="35"/>
-      <c r="S92" s="35"/>
-      <c r="T92" s="35"/>
-      <c r="U92" s="35"/>
-      <c r="V92" s="35"/>
-      <c r="W92" s="35"/>
-      <c r="X92" s="35"/>
-      <c r="Y92" s="35"/>
-      <c r="Z92" s="35"/>
-      <c r="AA92" s="37"/>
-      <c r="AB92" s="37"/>
+      <c r="A92" s="29"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="28"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
+      <c r="T92" s="34"/>
+      <c r="U92" s="34"/>
+      <c r="V92" s="34"/>
+      <c r="W92" s="34"/>
+      <c r="X92" s="34"/>
+      <c r="Y92" s="34"/>
+      <c r="Z92" s="34"/>
+      <c r="AA92" s="36"/>
+      <c r="AB92" s="36"/>
     </row>
     <row r="93" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="30"/>
-      <c r="B93" s="29"/>
-      <c r="C93" s="30"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="29"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="29"/>
-      <c r="H93" s="30"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="35"/>
-      <c r="X93" s="35"/>
-      <c r="Y93" s="35"/>
-      <c r="Z93" s="35"/>
-      <c r="AA93" s="37"/>
-      <c r="AB93" s="37"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="28"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="35"/>
+      <c r="L93" s="34"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="34"/>
+      <c r="S93" s="34"/>
+      <c r="T93" s="34"/>
+      <c r="U93" s="34"/>
+      <c r="V93" s="34"/>
+      <c r="W93" s="34"/>
+      <c r="X93" s="34"/>
+      <c r="Y93" s="34"/>
+      <c r="Z93" s="34"/>
+      <c r="AA93" s="36"/>
+      <c r="AB93" s="36"/>
     </row>
     <row r="94" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="30"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="30"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="30"/>
-      <c r="I94" s="35"/>
-      <c r="J94" s="35"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="35"/>
-      <c r="N94" s="35"/>
-      <c r="O94" s="35"/>
-      <c r="P94" s="35"/>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35"/>
-      <c r="V94" s="35"/>
-      <c r="W94" s="35"/>
-      <c r="X94" s="35"/>
-      <c r="Y94" s="35"/>
-      <c r="Z94" s="35"/>
-      <c r="AA94" s="37"/>
-      <c r="AB94" s="37"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="28"/>
+      <c r="E94" s="28"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="28"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="35"/>
+      <c r="L94" s="34"/>
+      <c r="M94" s="34"/>
+      <c r="N94" s="34"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="34"/>
+      <c r="S94" s="34"/>
+      <c r="T94" s="34"/>
+      <c r="U94" s="34"/>
+      <c r="V94" s="34"/>
+      <c r="W94" s="34"/>
+      <c r="X94" s="34"/>
+      <c r="Y94" s="34"/>
+      <c r="Z94" s="34"/>
+      <c r="AA94" s="36"/>
+      <c r="AB94" s="36"/>
     </row>
     <row r="95" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="30"/>
-      <c r="B95" s="29"/>
-      <c r="C95" s="30"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="29"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="35"/>
-      <c r="J95" s="35"/>
-      <c r="K95" s="36"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="35"/>
-      <c r="N95" s="35"/>
-      <c r="O95" s="35"/>
-      <c r="P95" s="35"/>
-      <c r="Q95" s="35"/>
-      <c r="R95" s="35"/>
-      <c r="S95" s="35"/>
-      <c r="T95" s="35"/>
-      <c r="U95" s="35"/>
-      <c r="V95" s="35"/>
-      <c r="W95" s="35"/>
-      <c r="X95" s="35"/>
-      <c r="Y95" s="35"/>
-      <c r="Z95" s="35"/>
-      <c r="AA95" s="37"/>
-      <c r="AB95" s="37"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="34"/>
+      <c r="J95" s="34"/>
+      <c r="K95" s="35"/>
+      <c r="L95" s="34"/>
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="34"/>
+      <c r="T95" s="34"/>
+      <c r="U95" s="34"/>
+      <c r="V95" s="34"/>
+      <c r="W95" s="34"/>
+      <c r="X95" s="34"/>
+      <c r="Y95" s="34"/>
+      <c r="Z95" s="34"/>
+      <c r="AA95" s="36"/>
+      <c r="AB95" s="36"/>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="38"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="39"/>
-      <c r="J96" s="35"/>
-      <c r="K96" s="36"/>
-      <c r="L96" s="39"/>
-      <c r="M96" s="39"/>
-      <c r="N96" s="39"/>
-      <c r="O96" s="39"/>
-      <c r="P96" s="39"/>
-      <c r="Q96" s="39"/>
-      <c r="R96" s="39"/>
-      <c r="S96" s="39"/>
-      <c r="T96" s="39"/>
-      <c r="U96" s="39"/>
-      <c r="V96" s="39"/>
-      <c r="W96" s="39"/>
-      <c r="X96" s="39"/>
-      <c r="Y96" s="39"/>
-      <c r="Z96" s="39"/>
-      <c r="AA96" s="37"/>
-      <c r="AB96" s="37"/>
+      <c r="A96" s="28"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="35"/>
+      <c r="L96" s="37"/>
+      <c r="M96" s="37"/>
+      <c r="N96" s="37"/>
+      <c r="O96" s="37"/>
+      <c r="P96" s="37"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="37"/>
+      <c r="T96" s="37"/>
+      <c r="U96" s="37"/>
+      <c r="V96" s="37"/>
+      <c r="W96" s="37"/>
+      <c r="X96" s="37"/>
+      <c r="Y96" s="37"/>
+      <c r="Z96" s="37"/>
+      <c r="AA96" s="36"/>
+      <c r="AB96" s="36"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -4330,191 +4237,191 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="40" width="28.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="40" width="45.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="38" width="28.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="2" style="38" width="45.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="45" t="s">
         <v>155</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="49"/>
+      <c r="V2" s="49"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
-      <c r="P3" s="51"/>
-      <c r="Q3" s="51"/>
-      <c r="R3" s="51"/>
-      <c r="S3" s="51"/>
-      <c r="T3" s="51"/>
-      <c r="U3" s="51"/>
-      <c r="V3" s="51"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
+      <c r="A4" s="47"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="38" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="38" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="38" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="38" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4587,57 +4494,57 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="G1" s="53" t="s">
+      <c r="G1" s="50" t="s">
         <v>176</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="22" t="s">
@@ -4646,39 +4553,39 @@
       <c r="B2" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="54" t="n">
+      <c r="C2" s="51" t="n">
         <f aca="true">NOW()</f>
-        <v>45316.8564730556</v>
-      </c>
-      <c r="D2" s="55" t="s">
+        <v>45328.9949586834</v>
+      </c>
+      <c r="D2" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="F2" s="49"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="47"/>
+      <c r="G2" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47"/>
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
